--- a/examples/CAII-CBS/bCAII.xlsx
+++ b/examples/CAII-CBS/bCAII.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20191204a1.itc</t>
+          <t>20191205a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20191204a2.itc</t>
+          <t>20191205a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20191204a3.itc</t>
+          <t>20191205a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20191204a4.itc</t>
+          <t>20191205a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20191204a5.itc</t>
+          <t>20191205a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20191204a6.itc</t>
+          <t>20191205a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20191204a7.itc</t>
+          <t>20191205a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20191204a8.itc</t>
+          <t>20191205a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20191204a9.itc</t>
+          <t>20191205a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20191204a10.itc</t>
+          <t>20191205a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20191204a11.itc</t>
+          <t>20191205a11.itc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20191204a12.itc</t>
+          <t>20191205a12.itc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20191204a13.itc</t>
+          <t>20191205a13.itc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1050,7 +1050,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20191204a14.itc</t>
+          <t>20191205a14.itc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20191204a15.itc</t>
+          <t>20191205a15.itc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20191204a16.itc</t>
+          <t>20191205a16.itc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20191204a17.itc</t>
+          <t>20191205a17.itc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20191204a18.itc</t>
+          <t>20191205a18.itc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1295,7 +1295,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20191204a19.itc</t>
+          <t>20191205a19.itc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20191204a20.itc</t>
+          <t>20191205a20.itc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1387,55 +1387,6 @@
       <c r="K21" t="inlineStr">
         <is>
           <t>Plate1, G5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20191204a21.itc</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>final water into water test 2</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Plates Clean.setup</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ChoderaWaterWater.inj</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Plate1, A6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Plate1, B6</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Plate1, A6</t>
         </is>
       </c>
     </row>
